--- a/planning_infirmiers_month31.xlsx
+++ b/planning_infirmiers_month31.xlsx
@@ -29,12 +29,30 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCFF"/>
+        <bgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -589,14 +610,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -609,24 +630,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -644,9 +665,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -654,9 +675,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -664,9 +685,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -684,9 +705,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -694,9 +715,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -704,14 +725,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -729,9 +750,9 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -774,9 +795,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -784,9 +805,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -809,9 +830,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -819,14 +840,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -839,9 +860,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -849,14 +870,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -864,9 +885,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -874,9 +895,9 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -899,14 +920,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -924,9 +945,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -934,9 +955,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -944,14 +965,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -959,14 +980,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -974,9 +995,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -994,19 +1015,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB4" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1019,29 +1040,29 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1059,14 +1080,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1074,14 +1095,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1104,9 +1125,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1124,19 +1145,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y5" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1164,9 +1185,9 @@
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1184,9 +1205,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1194,9 +1215,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1209,14 +1230,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1234,19 +1255,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1254,9 +1275,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1269,14 +1290,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1284,14 +1305,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z6" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1299,9 +1320,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1309,19 +1330,19 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1344,19 +1365,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1364,9 +1385,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1374,9 +1395,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1399,9 +1420,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1419,29 +1440,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA7" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1454,14 +1475,14 @@
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1474,9 +1495,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1484,19 +1505,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1504,19 +1525,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1524,14 +1545,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1564,24 +1585,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1589,9 +1610,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1599,14 +1620,14 @@
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1614,14 +1635,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1639,9 +1660,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1669,24 +1690,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1699,29 +1720,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="X9" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Y9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Z9" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1749,14 +1770,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1764,9 +1785,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1779,19 +1800,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1799,29 +1820,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1834,14 +1855,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="U10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1859,19 +1880,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y10" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AA10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1899,9 +1920,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1909,9 +1930,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1924,9 +1945,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1934,9 +1955,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1944,9 +1965,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1959,19 +1980,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1984,24 +2005,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="X11" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2014,14 +2035,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA11" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AB11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2034,14 +2055,14 @@
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2049,24 +2070,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2074,24 +2095,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2099,9 +2120,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2109,14 +2130,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2134,19 +2155,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2154,14 +2175,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z12" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AA12" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2169,9 +2190,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC12" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2194,9 +2215,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2224,9 +2245,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2234,9 +2255,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2249,14 +2270,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2269,9 +2290,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2279,9 +2300,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V13" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2289,9 +2310,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2309,14 +2330,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB13" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC13" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -2324,9 +2345,9 @@
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2339,9 +2360,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2364,19 +2385,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2384,14 +2405,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2404,9 +2425,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2429,9 +2450,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2459,9 +2480,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC14" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -2479,19 +2500,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2504,9 +2525,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2514,9 +2535,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2529,9 +2550,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2539,9 +2560,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2554,9 +2575,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2564,9 +2585,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U15" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2574,9 +2595,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2594,19 +2615,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA15" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB15" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC15" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -2624,9 +2645,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2634,34 +2655,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2679,19 +2700,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2724,14 +2745,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2739,14 +2760,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AB16" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2769,19 +2790,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2789,19 +2810,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2814,9 +2835,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2849,9 +2870,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2869,9 +2890,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2879,9 +2900,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2889,9 +2910,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2904,9 +2925,9 @@
       <c r="A18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2919,24 +2940,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2944,9 +2965,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2979,9 +3000,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2989,9 +3010,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3009,14 +3030,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3024,14 +3045,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z18" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA18" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3039,9 +3060,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC18" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3054,59 +3075,59 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3119,9 +3140,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3129,19 +3150,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3179,14 +3200,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC19" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -3194,14 +3215,14 @@
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3209,9 +3230,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3229,9 +3250,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3249,29 +3270,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3284,9 +3305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3299,24 +3320,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3324,9 +3345,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3349,14 +3370,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3369,9 +3390,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3379,9 +3400,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3389,9 +3410,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3409,9 +3430,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3419,9 +3440,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3439,9 +3460,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3459,19 +3480,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z21" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA21" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB21" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3494,9 +3515,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3504,14 +3525,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3534,9 +3555,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3569,24 +3590,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3599,9 +3620,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3619,9 +3640,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC22" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -3629,9 +3650,9 @@
       <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3654,14 +3675,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3694,9 +3715,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3744,9 +3765,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y23" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3759,9 +3780,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB23" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3774,9 +3795,9 @@
       <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3799,9 +3820,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3814,14 +3835,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3854,9 +3875,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3864,19 +3885,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U24" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3889,14 +3910,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y24" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z24" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3924,9 +3945,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3934,9 +3955,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3954,14 +3975,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3979,9 +4000,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3999,9 +4020,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4024,19 +4045,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4064,19 +4085,19 @@
       <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4089,14 +4110,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4114,9 +4135,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -4124,14 +4145,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -4139,19 +4160,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -4159,19 +4180,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4179,14 +4200,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4194,14 +4215,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB26" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC26" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -4214,9 +4235,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4229,9 +4250,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4264,19 +4285,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4289,9 +4310,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4299,9 +4320,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T27" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4334,14 +4355,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA27" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AB27" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4354,9 +4375,9 @@
       <c r="A28" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4374,9 +4395,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4384,9 +4405,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4419,34 +4440,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4454,9 +4475,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -4484,9 +4505,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4504,9 +4525,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4514,9 +4535,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4529,14 +4550,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4544,9 +4565,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4554,9 +4575,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4564,14 +4585,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4584,9 +4605,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -4594,9 +4615,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -4604,9 +4625,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W29" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4649,19 +4670,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4669,9 +4690,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4684,9 +4705,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4694,29 +4715,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4734,14 +4755,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -4759,19 +4780,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z30" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AA30" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4779,9 +4800,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC30" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4799,9 +4820,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4824,9 +4845,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4864,9 +4885,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -4874,34 +4895,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="T31" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U31" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="W31" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4934,14 +4955,14 @@
       <c r="A32" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4959,9 +4980,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4984,9 +5005,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4999,9 +5020,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O32" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5014,29 +5035,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S32" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5049,14 +5070,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y32" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -5064,14 +5085,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB32" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AC32" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5104,9 +5125,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5119,9 +5140,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5129,14 +5150,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5154,24 +5175,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="T33" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5179,9 +5200,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V33" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5189,9 +5210,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5209,9 +5230,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB33" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5224,9 +5245,9 @@
       <c r="A34" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5234,9 +5255,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5249,19 +5270,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5269,9 +5290,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5284,9 +5305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N34" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5324,14 +5345,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -5339,29 +5360,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB34" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC34" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5374,14 +5395,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5389,14 +5410,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -5404,9 +5425,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5419,9 +5440,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5429,14 +5450,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5454,9 +5475,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -5464,14 +5485,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U35" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -5479,14 +5500,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X35" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y35" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -5494,19 +5515,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA35" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AB35" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC35" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -5519,14 +5540,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5539,14 +5560,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5559,24 +5580,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5589,9 +5610,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -5599,9 +5620,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -5629,19 +5650,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z36" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AA36" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -5649,9 +5670,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC36" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5659,34 +5680,34 @@
       <c r="A37" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5699,9 +5720,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5714,34 +5735,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -5754,9 +5775,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -5764,9 +5785,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -5774,9 +5795,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y37" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5789,9 +5810,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB37" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -5809,19 +5830,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5829,9 +5850,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5839,9 +5860,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5874,9 +5895,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -5889,24 +5910,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S38" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V38" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -5914,9 +5935,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X38" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -5924,14 +5945,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z38" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA38" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5939,9 +5960,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC38" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5949,14 +5970,14 @@
       <c r="A39" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5969,19 +5990,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5999,9 +6020,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6009,14 +6030,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -6029,9 +6050,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -6039,24 +6060,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -6064,14 +6085,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y39" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z39" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -6084,9 +6105,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC39" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6109,9 +6130,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6119,19 +6140,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6139,9 +6160,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6149,14 +6170,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6164,14 +6185,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P40" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -6179,19 +6200,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -6199,9 +6220,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -6214,9 +6235,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z40" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6269,14 +6290,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6284,9 +6305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -6304,9 +6325,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -6324,9 +6345,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S41" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -6334,24 +6355,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U41" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -6394,9 +6415,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -6419,9 +6440,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6454,9 +6475,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -6469,9 +6490,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -6479,9 +6500,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U42" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -6509,9 +6530,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA42" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -6519,9 +6540,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC42" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6529,9 +6550,9 @@
       <c r="A43" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6544,14 +6565,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6559,14 +6580,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6574,14 +6595,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6594,9 +6615,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -6609,19 +6630,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R43" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="S43" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -6639,14 +6660,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X43" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y43" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -6664,9 +6685,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC43" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6679,14 +6700,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -6694,14 +6715,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -6714,19 +6735,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -6764,14 +6785,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="U44" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -6789,9 +6810,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y44" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -6804,9 +6825,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB44" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -6819,9 +6840,9 @@
       <c r="A45" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6829,19 +6850,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -6854,9 +6875,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6864,9 +6885,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -6874,9 +6895,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6884,19 +6905,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -6904,9 +6925,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S45" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -6914,9 +6935,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -6929,14 +6950,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="X45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y45" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6944,9 +6965,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6954,9 +6975,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AC45" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -7004,9 +7025,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7014,9 +7035,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -7024,9 +7045,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -7039,14 +7060,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -7069,9 +7090,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W46" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -7089,9 +7110,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA46" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -7109,9 +7130,9 @@
       <c r="A47" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7124,9 +7145,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7144,14 +7165,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7159,14 +7180,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7174,29 +7195,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -7204,9 +7225,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -7214,14 +7235,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="X47" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -7269,29 +7290,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -7304,29 +7325,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -7334,19 +7355,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -7354,9 +7375,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V48" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -7374,9 +7395,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z48" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -7399,14 +7420,14 @@
       <c r="A49" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7414,9 +7435,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7429,9 +7450,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7449,9 +7470,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7459,9 +7480,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -7469,19 +7490,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -7494,19 +7515,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -7514,9 +7535,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -7529,14 +7550,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB49" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AC49" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7554,14 +7575,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7574,9 +7595,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -7594,9 +7615,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7604,9 +7625,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -7619,9 +7640,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -7634,9 +7655,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -7649,9 +7670,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -7659,9 +7680,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Y50" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -7669,19 +7690,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA50" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="AB50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AC50" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7694,9 +7715,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7704,9 +7725,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7729,24 +7750,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7754,9 +7775,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -7774,9 +7795,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S51" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -7784,24 +7805,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="W51" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -7809,9 +7830,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Z51" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -7819,9 +7840,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB51" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -7834,19 +7855,19 @@
       <c r="A52" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -7854,14 +7875,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7879,9 +7900,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7889,19 +7910,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -7929,14 +7950,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -7964,14 +7985,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AB52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC52" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7999,9 +8020,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -8009,19 +8030,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8029,14 +8050,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8044,9 +8065,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -8059,9 +8080,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -8079,14 +8100,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="V53" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W53" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -8104,9 +8125,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AA53" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -8149,9 +8170,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8164,14 +8185,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -8184,9 +8205,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -8199,9 +8220,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
